--- a/curso de excel/archivos_base_excel_datos_update/01 Reparar Rango.xlsx
+++ b/curso de excel/archivos_base_excel_datos_update/01 Reparar Rango.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Isa\informes\V2brain\VideoPracticas7\ES_2345\ArchivosBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b598d4b3a620ad8/Documents/Personal Documents/projects/Eldor48.github.io/curso de excel/archivos_base_excel_datos_update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39003D0B-7845-4A0B-90C2-3EED9EC9DA87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{39003D0B-7845-4A0B-90C2-3EED9EC9DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E641DFE-6E47-4506-8A40-8978A73F21A5}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23040" windowHeight="13898" xr2:uid="{3B03C090-F6E7-4A2A-8463-763CA8D9FC48}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B03C090-F6E7-4A2A-8463-763CA8D9FC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -278,7 +283,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -375,13 +380,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -403,7 +408,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -702,12 +707,12 @@
   <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E10" sqref="E10:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +720,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -724,7 +729,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +737,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -740,7 +745,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -748,7 +753,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -756,7 +761,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -764,7 +769,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -772,7 +777,7 @@
         <v>1123.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
@@ -780,7 +785,7 @@
         <v>1332.36</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -788,7 +793,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -796,7 +801,7 @@
         <v>165.6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -804,7 +809,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -812,7 +817,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -820,7 +825,7 @@
         <v>165.6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -828,7 +833,7 @@
         <v>82.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -836,7 +841,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -844,7 +849,7 @@
         <v>317.2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -852,7 +857,7 @@
         <v>434.4</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -860,7 +865,7 @@
         <v>551.6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -868,7 +873,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -876,7 +881,7 @@
         <v>165.6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -884,7 +889,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -892,7 +897,7 @@
         <v>248.4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -900,7 +905,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -908,7 +913,7 @@
         <v>351.6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -916,7 +921,7 @@
         <v>551.25</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -924,7 +929,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
@@ -932,7 +937,7 @@
         <v>257.25</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>25</v>
       </c>
@@ -940,7 +945,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -948,7 +953,7 @@
         <v>477.75</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
@@ -956,7 +961,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
@@ -964,7 +969,7 @@
         <v>698.25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
@@ -972,7 +977,7 @@
         <v>808.5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -980,7 +985,7 @@
         <v>308.7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
@@ -988,7 +993,7 @@
         <v>326.45999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
@@ -996,7 +1001,7 @@
         <v>344.22</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
@@ -1004,7 +1009,7 @@
         <v>361.98</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>34</v>
       </c>
@@ -1012,7 +1017,7 @@
         <v>379.74</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
@@ -1020,7 +1025,7 @@
         <v>397.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>36</v>
       </c>
@@ -1028,7 +1033,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>37</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>165.6</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
@@ -1044,7 +1049,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>39</v>
       </c>
@@ -1052,7 +1057,7 @@
         <v>848.4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>40</v>
       </c>
@@ -1060,7 +1065,7 @@
         <v>776.8</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -1068,7 +1073,7 @@
         <v>705.2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>42</v>
       </c>
@@ -1076,7 +1081,7 @@
         <v>633.6</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>43</v>
       </c>
@@ -1084,7 +1089,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
@@ -1092,7 +1097,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
@@ -1100,7 +1105,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1113,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
@@ -1116,7 +1121,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>48</v>
       </c>
@@ -1124,7 +1129,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>49</v>
       </c>
@@ -1132,7 +1137,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -1140,7 +1145,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>51</v>
       </c>
@@ -1148,7 +1153,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>52</v>
       </c>
@@ -1156,7 +1161,7 @@
         <v>1550.4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>53</v>
       </c>
@@ -1164,7 +1169,7 @@
         <v>165.6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>54</v>
       </c>
@@ -1172,7 +1177,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>55</v>
       </c>
@@ -1180,7 +1185,7 @@
         <v>1248.4000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>56</v>
       </c>
@@ -1188,7 +1193,7 @@
         <v>1576.8</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>57</v>
       </c>
@@ -1196,7 +1201,7 @@
         <v>1905.2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>58</v>
       </c>
@@ -1204,7 +1209,7 @@
         <v>2233.6</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>59</v>
       </c>
@@ -1212,7 +1217,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>60</v>
       </c>
@@ -1220,7 +1225,7 @@
         <v>225.28</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>61</v>
       </c>
@@ -1228,7 +1233,7 @@
         <v>351.6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>62</v>
       </c>
@@ -1236,7 +1241,7 @@
         <v>551.25</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>63</v>
       </c>
@@ -1244,7 +1249,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>64</v>
       </c>
@@ -1252,7 +1257,7 @@
         <v>257.25</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>65</v>
       </c>
@@ -1260,7 +1265,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>66</v>
       </c>
@@ -1268,7 +1273,7 @@
         <v>477.75</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>67</v>
       </c>
@@ -1276,7 +1281,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>68</v>
       </c>
@@ -1284,7 +1289,7 @@
         <v>698.25</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>69</v>
       </c>
@@ -1292,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>70</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>71</v>
       </c>
@@ -1308,7 +1313,7 @@
         <v>323.60000000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>72</v>
       </c>
@@ -1316,7 +1321,7 @@
         <v>340.8</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>73</v>
       </c>
@@ -1324,7 +1329,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>74</v>
       </c>
@@ -1332,7 +1337,7 @@
         <v>375.2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>75</v>
       </c>
@@ -1340,7 +1345,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
@@ -1348,7 +1353,7 @@
         <v>257.25</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>77</v>
       </c>
@@ -1356,7 +1361,7 @@
         <v>367.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>78</v>
       </c>

--- a/curso de excel/archivos_base_excel_datos_update/01 Reparar Rango.xlsx
+++ b/curso de excel/archivos_base_excel_datos_update/01 Reparar Rango.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b598d4b3a620ad8/Documents/Personal Documents/projects/Eldor48.github.io/curso de excel/archivos_base_excel_datos_update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{39003D0B-7845-4A0B-90C2-3EED9EC9DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E641DFE-6E47-4506-8A40-8978A73F21A5}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{39003D0B-7845-4A0B-90C2-3EED9EC9DA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6A09298-70D2-42C0-AF5D-7D50D295E3DE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3B03C090-F6E7-4A2A-8463-763CA8D9FC48}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Clientes">Hoja1!$A$6:$B$84</definedName>
+    <definedName name="Nombres">Hoja1!$A$6:$B$84</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -707,7 +710,7 @@
   <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:I11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -722,11 +725,11 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6">
-        <f>VLOOKUP(A2,$A$5:$B$84,2,FALSE)</f>
-        <v>1170</v>
+        <f>VLOOKUP(A2,Clientes,2,FALSE)</f>
+        <v>1248.4000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
